--- a/biology/Zoologie/Galidia_elegans/Galidia_elegans.xlsx
+++ b/biology/Zoologie/Galidia_elegans/Galidia_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galidie élégante, Mangouste à queue annelée
 La Galidie élégante (Galidia elegans) ou Mangouste à queue annelée, unique représentant du genre Galidia, est un petit carnivore appartenant à la famille des Eupléridés.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle mesure jusqu'à 40 cm de long sans la queue, celle-ci, grosse et rayée rouge et noir,  mesure à elle seule plus de 30 cm. Elle pèse jusqu'à 7 kg.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique de Madagascar comme toutes les espèces d’Eupléridés.
 </t>
@@ -574,7 +590,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Même si l'animal est agile, il est principalement terrestre. Grégaire, il forme des groupes jusqu'à cinq individus autour d'un couple.
 </t>
@@ -605,7 +623,9 @@
           <t>Population et conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les populations de cette galidie souffrent de la réduction de son habitat traditionnel : ses effectifs ont baissé de 20 % en 10 ans. Elles souffrent également de la compétition avec la Petite civette indienne qui a été introduite à Madagascar, mais aussi les chats sauvages et les chiens.
 </t>
